--- a/excel_files/stc-annual-report-2021-new4.xlsx
+++ b/excel_files/stc-annual-report-2021-new4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,113 +744,113 @@
           <t>7</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>صافي الحصة في نتائج وانخفاض القيمة للاستثمارات في شركات زميلة ومشاريع مشتركة</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
+      <c r="A27" t="n">
+        <v>424612</v>
+      </c>
+      <c r="B27" t="n">
+        <v>789643</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ومشاريع مشتركة</t>
+          <t>صافي مكاسب أخُرى</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>424612</v>
-      </c>
-      <c r="B28" t="n">
-        <v>789643</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>صافي مكاسب أخُرى</t>
-        </is>
-      </c>
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
+      <c r="A29" t="n">
+        <v>375482</v>
+      </c>
+      <c r="B29" t="n">
+        <v>492692</v>
+      </c>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>إجمالي الايرادات (المصاريف) الُأخرى</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>375482</v>
-      </c>
-      <c r="B30" t="n">
-        <v>492692</v>
-      </c>
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>إجمالي الايرادات (المصاريف) الُأخرى</t>
-        </is>
-      </c>
+      <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
+      <c r="A31" t="n">
+        <v>12355643</v>
+      </c>
+      <c r="B31" t="n">
+        <v>12635063</v>
+      </c>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>صافي الربح قبل الزكاة وضريبة الدخل</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>12355643</v>
-      </c>
-      <c r="B32" t="n">
-        <v>12635063</v>
-      </c>
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>صافي الربح قبل الزكاة وضريبة الدخل</t>
-        </is>
-      </c>
+      <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+      <c r="A33" t="n">
+        <v>1170446</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1040366</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>زكاة وضريبة دخل</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1170446</v>
+        <v>11185197</v>
       </c>
       <c r="B34" t="n">
-        <v>1040366</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
+        <v>11594697</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>زكاة وضريبة دخل</t>
+          <t>صافي الربح</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>11185197</v>
-      </c>
-      <c r="B35" t="n">
-        <v>11594697</v>
-      </c>
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>صافي الربح</t>
-        </is>
-      </c>
+      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
@@ -859,40 +859,48 @@
       <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr"/>
+      <c r="A37" t="n">
+        <v>10994875</v>
+      </c>
+      <c r="B37" t="n">
+        <v>11311342</v>
+      </c>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>صافي الربح العائد إلى:</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>10994875</v>
+        <v>190322</v>
       </c>
       <c r="B38" t="n">
-        <v>11311342</v>
-      </c>
-      <c r="C38" t="inlineStr"/>
+        <v>283355</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>صافي الربح العائد إلى:</t>
+          <t>مساهمي الشركة الأم</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>190322</v>
+        <v>11185197</v>
       </c>
       <c r="B39" t="n">
-        <v>283355</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
+        <v>11594697</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>مساهمي الشركة الأم</t>
+          <t>حقوق الملكية غير المسيطرة</t>
         </is>
       </c>
     </row>
@@ -906,23 +914,15 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>حقوق الملكية غير المسيطرة</t>
+          <t>صافي الربح</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>11185197</v>
-      </c>
-      <c r="B41" t="n">
-        <v>11594697</v>
-      </c>
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>صافي الربح</t>
-        </is>
-      </c>
+      <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
@@ -934,7 +934,11 @@
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>الدخل الشامل الآخر (الخسارة الشاملة الُأخرى :)</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
@@ -942,7 +946,7 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>الدخل الشامل الآخر (الخسارة الشاملة الُأخرى :)</t>
+          <t>بنود لن يعاد تصنيفها لاحقا إلى قائمة الربح أو الخسارة الموحدة:</t>
         </is>
       </c>
     </row>
@@ -950,67 +954,71 @@
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>بنود لن يعاد تصنيفها لاحقا إلى قائمة الربح أو الخسارة الموحدة:</t>
-        </is>
-      </c>
+      <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr"/>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
+      <c r="A46" t="n">
+        <v>568893</v>
+      </c>
+      <c r="B46" t="n">
+        <v>312523</v>
+      </c>
+      <c r="C46" t="n">
+        <v>27</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>إعادة قياس مخصص مكافأة نهاية الخدمة</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>568893</v>
-      </c>
-      <c r="B47" t="n">
-        <v>312523</v>
-      </c>
-      <c r="C47" t="n">
-        <v>27</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>إعادة قياس مخصص مكافأة نهاية الخدمة</t>
-        </is>
-      </c>
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr"/>
+      <c r="A48" t="n">
+        <v>6379</v>
+      </c>
+      <c r="B48" t="n">
+        <v>5093</v>
+      </c>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>صافي الحصة من بنود الدخل الشامل الاخر للشركات الزميلة والمشاريع المشتركة</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>صافي الحصة من بنود الدخل الشامل الاخر للشركات الزميلة</t>
-        </is>
-      </c>
+      <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>6379</v>
-      </c>
-      <c r="B50" t="n">
-        <v>5093</v>
-      </c>
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>إجمالي البنود التي لن يعاد تصنيفها لاحقا إلى قائمة الربح أو</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr"/>
-      <c r="B51" t="inlineStr"/>
+      <c r="A51" t="n">
+        <v>562514</v>
+      </c>
+      <c r="B51" t="n">
+        <v>317616</v>
+      </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>والمشاريع المشتركة</t>
+          <t>الخسارة الموحدة</t>
         </is>
       </c>
     </row>
@@ -1026,21 +1034,21 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>إجمالي البنود التي لن يعاد تصنيفها لاحقا إلى قائمة الربح أو</t>
+          <t>بنود من الممكن إعادة تصنيفها لاحقا إلى قائمة الربح أوالخسارة الموحدة:</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>562514</v>
+        <v>16542</v>
       </c>
       <c r="B54" t="n">
-        <v>317616</v>
+        <v>20103</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>الخسارة الموحدة</t>
+          <t>فروقات ترجمة العملات الأجنبية</t>
         </is>
       </c>
     </row>
@@ -1051,12 +1059,14 @@
       <c r="D55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr"/>
+      <c r="A56" t="n">
+        <v>1820</v>
+      </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>بنود من الممكن إعادة تصنيفها لاحقا إلى قائمة الربح أو</t>
+          <t>صافي التغير في القيمة العادلة الناتجة عن تحوطات التدفق النقدي</t>
         </is>
       </c>
     </row>
@@ -1064,41 +1074,47 @@
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>الخسارة الموحدة:</t>
-        </is>
-      </c>
+      <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>16542</v>
+        <v>46152</v>
       </c>
       <c r="B58" t="n">
-        <v>20103</v>
+        <v>79686</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>فروقات ترجمة العملات الأجنبية</t>
+          <t>صافي الحصة من بنود الدخل الشامل الاخر للشركات الزميلةوالمشاريع المشتركة</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr"/>
-      <c r="B59" t="inlineStr"/>
+      <c r="A59" t="n">
+        <v>31430</v>
+      </c>
+      <c r="B59" t="n">
+        <v>99789</v>
+      </c>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>إجمالي البنود التي من الممكن اعادة تصنيفها لاحقا إلى قائمة الربح أو الخسارة الموحدة</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1820</v>
-      </c>
-      <c r="B60" t="inlineStr"/>
+        <v>531084</v>
+      </c>
+      <c r="B60" t="n">
+        <v>417405</v>
+      </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>صافي التغير في القيمة العادلة الناتجة عن تحوطات التدفق النقدي</t>
+          <t>إجمالي الدخل الشامل الاخر (الخسارة الشاملة الُأخرى)</t>
         </is>
       </c>
     </row>
@@ -1109,22 +1125,22 @@
       <c r="D61" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr"/>
-      <c r="B62" t="inlineStr"/>
+      <c r="A62" t="n">
+        <v>10654113</v>
+      </c>
+      <c r="B62" t="n">
+        <v>12012102</v>
+      </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>صافي الحصة من بنود الدخل الشامل الاخر للشركات الزميلة</t>
+          <t>إجمالي الدخل الشامل</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>46152</v>
-      </c>
-      <c r="B63" t="n">
-        <v>79686</v>
-      </c>
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
     </row>
@@ -1134,53 +1150,53 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>والمشاريع المشتركة</t>
+          <t>إجمالي الدخل الشامل العائد إلى:</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr"/>
-      <c r="B65" t="inlineStr"/>
+      <c r="A65" t="n">
+        <v>10478455</v>
+      </c>
+      <c r="B65" t="n">
+        <v>11717489</v>
+      </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>إجمالي البنود التي من الممكن اعادة تصنيفها لاحقا إلى قائمة صافي الحصة في نتائج وانخفاض القيمة للاستثمارات في شركات زميلة</t>
+          <t>مساهمي الشركة الأم</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>31430</v>
-      </c>
-      <c r="B66" t="n">
-        <v>99789</v>
-      </c>
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr"/>
-      <c r="B67" t="inlineStr"/>
+      <c r="A67" t="n">
+        <v>175658</v>
+      </c>
+      <c r="B67" t="n">
+        <v>294613</v>
+      </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>الربح أو الخسارة الموحدة</t>
+          <t>حقوق الملكية غير المسيطرة</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>531084</v>
+        <v>10654113</v>
       </c>
       <c r="B68" t="n">
-        <v>417405</v>
+        <v>12012102</v>
       </c>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>إجمالي الدخل الشامل الاخر (الخسارة الشاملة الُأخرى)</t>
-        </is>
-      </c>
+      <c r="D68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
@@ -1189,18 +1205,10 @@
       <c r="D69" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>10654113</v>
-      </c>
-      <c r="B70" t="n">
-        <v>12012102</v>
-      </c>
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>إجمالي الدخل الشامل</t>
-        </is>
-      </c>
+      <c r="D70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr"/>
@@ -1208,78 +1216,6 @@
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr"/>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>إجمالي الدخل الشامل العائد إلى:</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>10478455</v>
-      </c>
-      <c r="B73" t="n">
-        <v>11717489</v>
-      </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>مساهمي الشركة الأم</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr"/>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>175658</v>
-      </c>
-      <c r="B75" t="n">
-        <v>294613</v>
-      </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>حقوق الملكية غير المسيطرة</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>10654113</v>
-      </c>
-      <c r="B76" t="n">
-        <v>12012102</v>
-      </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr"/>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr"/>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr"/>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
